--- a/Code Lists/ToopDocumentTypeIdentifiers-v3.xlsx
+++ b/Code Lists/ToopDocumentTypeIdentifiers-v3.xlsx
@@ -144,15 +144,9 @@
     <t>Evidence Response</t>
   </si>
   <si>
-    <t>EDM Concept Request</t>
-  </si>
-  <si>
     <t>RegisteredOrganization::REGISTERED_ORGANIZATION_TYPE::CONCEPT##CCCEV::toop-edm:v2.0</t>
   </si>
   <si>
-    <t>EDM Document Request</t>
-  </si>
-  <si>
     <t>FinancialRecord::FINANCIAL_RECORD_TYPE::UNSTRUCTURED::toop-edm:v2.0</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>QueryResponse::toop-edm:v2.0</t>
+  </si>
+  <si>
+    <t>EDM Concept Request on RegisteredOrganisation Data</t>
+  </si>
+  <si>
+    <t>EDM Document Request on Fincancial Record</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -968,12 +968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
@@ -983,12 +983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>

--- a/Code Lists/ToopDocumentTypeIdentifiers-v3.xlsx
+++ b/Code Lists/ToopDocumentTypeIdentifiers-v3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Common Name</t>
   </si>
@@ -150,12 +150,6 @@
     <t>FinancialRecord::FINANCIAL_RECORD_TYPE::UNSTRUCTURED::toop-edm:v2.0</t>
   </si>
   <si>
-    <t>EDM Response (Concept)</t>
-  </si>
-  <si>
-    <t>EDM Response (Document)</t>
-  </si>
-  <si>
     <t>QueryResponse::toop-edm:v2.0</t>
   </si>
   <si>
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>EDM Document Request on Fincancial Record</t>
+  </si>
+  <si>
+    <t>EDM Response</t>
   </si>
 </sst>
 </file>
@@ -658,11 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -970,7 +967,7 @@
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>39</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>40</v>
@@ -1000,30 +997,15 @@
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
-      <c r="A23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
